--- a/Task2/Results/GroupByPropertyID/2015/CP.xlsx
+++ b/Task2/Results/GroupByPropertyID/2015/CP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Property_id</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Stay_date</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -37,34 +34,10 @@
     <t>ADR</t>
   </si>
   <si>
-    <t>directChannelCount</t>
-  </si>
-  <si>
-    <t>travelAgentsChannelCount</t>
-  </si>
-  <si>
-    <t>corporatesChannelCount</t>
-  </si>
-  <si>
-    <t>OTAChannelCount</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
-    <t>DIRECT</t>
-  </si>
-  <si>
-    <t>TRAVEL AGENTS</t>
-  </si>
-  <si>
-    <t>CORPORATES</t>
-  </si>
-  <si>
     <t>Vasant Panchami</t>
-  </si>
-  <si>
-    <t>Sir Chhotu Ram Jayanti</t>
   </si>
   <si>
     <t>Guru Ravidas Birthday</t>
@@ -444,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,323 +442,165 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>4479</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>2684</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42028</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>26000</v>
       </c>
       <c r="G2">
-        <v>52000</v>
-      </c>
-      <c r="H2">
         <v>26000</v>
       </c>
-      <c r="I2">
-        <v>102</v>
-      </c>
-      <c r="J2">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>5493</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42038</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>22750</v>
+      </c>
+      <c r="G3">
+        <v>22750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>6097</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42081</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>9917</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42049</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>2685</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42028</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>52000</v>
-      </c>
-      <c r="H3">
-        <v>26000</v>
-      </c>
-      <c r="I3">
-        <v>102</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>3244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42038</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>22750</v>
-      </c>
-      <c r="H4">
-        <v>22750</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>108</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3525</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42081</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>5765</v>
+        <v>10905</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42009</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>42049</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>26100</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>6411</v>
+        <v>15817</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>42009</v>
+        <v>42127</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G7">
-        <v>26100</v>
-      </c>
-      <c r="H7">
-        <v>26100</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>97</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>9664</v>
+        <v>17145</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>42127</v>
+        <v>42233</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>12000</v>
-      </c>
-      <c r="H8">
-        <v>12000</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>10396</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9">
         <v>0</v>
       </c>
     </row>
